--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL340_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL340_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\# OOI_Asset_Management\CP_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="2100" windowWidth="23244" windowHeight="9036" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="2430" yWindow="2100" windowWidth="23250" windowHeight="9030" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>Ref Des</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Sensor OOIBARCODE</t>
+  </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
   </si>
 </sst>
 </file>
@@ -263,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,8 +285,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -332,6 +341,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -340,7 +364,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -408,6 +432,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -791,17 +818,17 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>34</v>
       </c>
@@ -839,7 +866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -885,10 +912,10 @@
         <v>-70.708333333333329</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
   </sheetData>
@@ -907,21 +934,21 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1"/>
-    <col min="7" max="8" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -947,7 +974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
@@ -983,7 +1010,7 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -1019,7 +1046,7 @@
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1055,7 +1082,7 @@
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1091,7 +1118,7 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12"/>
@@ -1111,7 +1138,7 @@
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
     </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
@@ -1142,7 +1169,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1173,7 +1200,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1204,7 +1231,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1235,7 +1262,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12"/>
@@ -1250,7 +1277,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>25</v>
       </c>
@@ -1277,7 +1304,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:18" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="12"/>
@@ -1292,7 +1319,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
@@ -1319,7 +1346,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="12"/>
@@ -1334,7 +1361,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>27</v>
       </c>
@@ -1353,15 +1380,19 @@
       <c r="F16" s="16">
         <v>50154</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="G16" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="28">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="12"/>
@@ -1376,7 +1407,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>28</v>
       </c>
@@ -1403,7 +1434,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="12"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL340_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL340_00001.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Ref Des</t>
   </si>
@@ -170,6 +170,24 @@
   </si>
   <si>
     <t>CC_bsipar_par_scaling</t>
+  </si>
+  <si>
+    <t>OL000350</t>
+  </si>
+  <si>
+    <t>A01759</t>
+  </si>
+  <si>
+    <t>N00034</t>
+  </si>
+  <si>
+    <t>N00033</t>
+  </si>
+  <si>
+    <t>N00032</t>
+  </si>
+  <si>
+    <t>N00031</t>
   </si>
 </sst>
 </file>
@@ -815,7 +833,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K9" sqref="K8:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +952,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F2" s="16">
         <v>648875</v>
@@ -1024,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F3" s="16">
         <v>648875</v>
@@ -1060,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F4" s="16">
         <v>648875</v>
@@ -1096,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F5" s="16">
         <v>648875</v>
@@ -1152,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F7" s="16">
         <v>2813</v>
@@ -1183,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F8" s="16">
         <v>2813</v>
@@ -1214,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F9" s="16">
         <v>2813</v>
@@ -1245,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F10" s="16">
         <v>2813</v>
@@ -1291,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F12" s="16">
         <v>9037</v>
@@ -1333,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F14" s="16">
         <v>123</v>
@@ -1375,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F16" s="16">
         <v>50154</v>
@@ -1421,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F18" s="16">
         <v>340</v>
